--- a/static/output/Excel/LRcountsxl2-sol1.xlsx
+++ b/static/output/Excel/LRcountsxl2-sol1.xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adolphus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adolphus\Documents\GitHub\ACTL20004-ACTL90021-Tutorials\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA518870-19A0-4B65-A671-F70AF5DB70F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3CEF9B-2C6D-4040-BF4B-B33997237E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
     <sheet name="CL" sheetId="2" r:id="rId2"/>
     <sheet name="CL IBNR" sheetId="3" r:id="rId3"/>
-    <sheet name="comparison" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Period</t>
   </si>
@@ -182,24 +181,6 @@
   <si>
     <t>Ult Freq</t>
   </si>
-  <si>
-    <t>True rectangle:</t>
-  </si>
-  <si>
-    <t>A/E</t>
-  </si>
-  <si>
-    <t>Ultimate</t>
-  </si>
-  <si>
-    <t>Heatmap of A/E:</t>
-  </si>
-  <si>
-    <t>(average)</t>
-  </si>
-  <si>
-    <t>The overshoot here is due to the highly leveraged first observation</t>
-  </si>
 </sst>
 </file>
 
@@ -305,7 +286,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,12 +341,6 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -409,7 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -466,11 +441,6 @@
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6350,7 +6320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B8F575-6859-4BBF-B3C6-ED6B213B6219}">
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
@@ -8124,1465 +8094,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364B5CF7-A3FC-4319-8E20-4BA4FA170895}">
-  <dimension ref="A1:AA35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="40">
-        <v>4</v>
-      </c>
-      <c r="D2" s="40">
-        <v>46</v>
-      </c>
-      <c r="E2" s="40">
-        <v>44</v>
-      </c>
-      <c r="F2" s="40">
-        <v>40</v>
-      </c>
-      <c r="G2" s="40">
-        <v>35</v>
-      </c>
-      <c r="H2" s="40">
-        <v>17</v>
-      </c>
-      <c r="I2" s="40">
-        <v>7</v>
-      </c>
-      <c r="J2" s="40">
-        <v>3</v>
-      </c>
-      <c r="K2" s="40">
-        <v>3</v>
-      </c>
-      <c r="L2" s="40">
-        <v>0</v>
-      </c>
-      <c r="M2" s="40">
-        <v>0</v>
-      </c>
-      <c r="N2" s="40">
-        <v>0</v>
-      </c>
-      <c r="O2" s="40">
-        <v>0</v>
-      </c>
-      <c r="P2" s="42">
-        <f>SUM(C2:N2)</f>
-        <v>199</v>
-      </c>
-      <c r="Q2" s="44">
-        <f t="shared" ref="Q2:Q17" si="0">S2-P2</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="50" t="e">
-        <f>Q2/'CL IBNR'!R4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S2" s="51">
-        <f t="shared" ref="S2:S17" si="1">SUM(C2:O2)</f>
-        <v>199</v>
-      </c>
-      <c r="T2" s="50">
-        <f>S2/'CL IBNR'!S4</f>
-        <v>0.9986109549625436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="40">
-        <v>3</v>
-      </c>
-      <c r="D3" s="40">
-        <v>46</v>
-      </c>
-      <c r="E3" s="40">
-        <v>61</v>
-      </c>
-      <c r="F3" s="40">
-        <v>43</v>
-      </c>
-      <c r="G3" s="40">
-        <v>28</v>
-      </c>
-      <c r="H3" s="40">
-        <v>17</v>
-      </c>
-      <c r="I3" s="40">
-        <v>5</v>
-      </c>
-      <c r="J3" s="40">
-        <v>3</v>
-      </c>
-      <c r="K3" s="40">
-        <v>1</v>
-      </c>
-      <c r="L3" s="40">
-        <v>2</v>
-      </c>
-      <c r="M3" s="40">
-        <v>1</v>
-      </c>
-      <c r="N3" s="40">
-        <v>0</v>
-      </c>
-      <c r="O3" s="40">
-        <v>0</v>
-      </c>
-      <c r="P3" s="42">
-        <f>SUM(C3:N3)</f>
-        <v>210</v>
-      </c>
-      <c r="Q3" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R3" s="50" t="e">
-        <f>Q3/'CL IBNR'!R5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S3" s="51">
-        <f t="shared" si="1"/>
-        <v>210</v>
-      </c>
-      <c r="T3" s="50">
-        <f>S3/'CL IBNR'!S5</f>
-        <v>0.9986109549625436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="40">
-        <v>4</v>
-      </c>
-      <c r="D4" s="40">
-        <v>33</v>
-      </c>
-      <c r="E4" s="40">
-        <v>49</v>
-      </c>
-      <c r="F4" s="40">
-        <v>46</v>
-      </c>
-      <c r="G4" s="40">
-        <v>27</v>
-      </c>
-      <c r="H4" s="40">
-        <v>11</v>
-      </c>
-      <c r="I4" s="40">
-        <v>7</v>
-      </c>
-      <c r="J4" s="40">
-        <v>3</v>
-      </c>
-      <c r="K4" s="40">
-        <v>2</v>
-      </c>
-      <c r="L4" s="40">
-        <v>0</v>
-      </c>
-      <c r="M4" s="40">
-        <v>0</v>
-      </c>
-      <c r="N4" s="40">
-        <v>0</v>
-      </c>
-      <c r="O4" s="40">
-        <v>0</v>
-      </c>
-      <c r="P4" s="42">
-        <f>SUM(C4:N4)</f>
-        <v>182</v>
-      </c>
-      <c r="Q4" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="50" t="e">
-        <f>Q4/'CL IBNR'!R6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S4" s="51">
-        <f t="shared" si="1"/>
-        <v>182</v>
-      </c>
-      <c r="T4" s="50">
-        <f>S4/'CL IBNR'!S6</f>
-        <v>0.99861095496254371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="40">
-        <v>4</v>
-      </c>
-      <c r="D5" s="40">
-        <v>36</v>
-      </c>
-      <c r="E5" s="40">
-        <v>73</v>
-      </c>
-      <c r="F5" s="40">
-        <v>47</v>
-      </c>
-      <c r="G5" s="40">
-        <v>31</v>
-      </c>
-      <c r="H5" s="40">
-        <v>18</v>
-      </c>
-      <c r="I5" s="40">
-        <v>14</v>
-      </c>
-      <c r="J5" s="40">
-        <v>8</v>
-      </c>
-      <c r="K5" s="40">
-        <v>3</v>
-      </c>
-      <c r="L5" s="40">
-        <v>0</v>
-      </c>
-      <c r="M5" s="40">
-        <v>1</v>
-      </c>
-      <c r="N5" s="40">
-        <v>0</v>
-      </c>
-      <c r="O5" s="40">
-        <v>0</v>
-      </c>
-      <c r="P5" s="42">
-        <f>SUM(C5:N5)</f>
-        <v>235</v>
-      </c>
-      <c r="Q5" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="50" t="e">
-        <f>Q5/'CL IBNR'!R7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" s="51">
-        <f t="shared" si="1"/>
-        <v>235</v>
-      </c>
-      <c r="T5" s="50">
-        <f>S5/'CL IBNR'!S7</f>
-        <v>0.9986109549625436</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="40">
-        <v>4</v>
-      </c>
-      <c r="D6" s="40">
-        <v>40</v>
-      </c>
-      <c r="E6" s="40">
-        <v>49</v>
-      </c>
-      <c r="F6" s="40">
-        <v>52</v>
-      </c>
-      <c r="G6" s="40">
-        <v>33</v>
-      </c>
-      <c r="H6" s="40">
-        <v>19</v>
-      </c>
-      <c r="I6" s="40">
-        <v>7</v>
-      </c>
-      <c r="J6" s="40">
-        <v>1</v>
-      </c>
-      <c r="K6" s="40">
-        <v>1</v>
-      </c>
-      <c r="L6" s="40">
-        <v>0</v>
-      </c>
-      <c r="M6" s="40">
-        <v>0</v>
-      </c>
-      <c r="N6" s="40">
-        <v>0</v>
-      </c>
-      <c r="O6" s="40">
-        <v>0</v>
-      </c>
-      <c r="P6" s="42">
-        <f>SUM(C6:N6)</f>
-        <v>206</v>
-      </c>
-      <c r="Q6" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="50" t="e">
-        <f>Q6/'CL IBNR'!R8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S6" s="51">
-        <f t="shared" si="1"/>
-        <v>206</v>
-      </c>
-      <c r="T6" s="50">
-        <f>S6/'CL IBNR'!S8</f>
-        <v>0.9986109549625436</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="40">
-        <v>2</v>
-      </c>
-      <c r="D7" s="40">
-        <v>30</v>
-      </c>
-      <c r="E7" s="40">
-        <v>58</v>
-      </c>
-      <c r="F7" s="40">
-        <v>39</v>
-      </c>
-      <c r="G7" s="40">
-        <v>35</v>
-      </c>
-      <c r="H7" s="40">
-        <v>9</v>
-      </c>
-      <c r="I7" s="40">
-        <v>12</v>
-      </c>
-      <c r="J7" s="40">
-        <v>5</v>
-      </c>
-      <c r="K7" s="40">
-        <v>5</v>
-      </c>
-      <c r="L7" s="40">
-        <v>1</v>
-      </c>
-      <c r="M7" s="40">
-        <v>0</v>
-      </c>
-      <c r="N7" s="40">
-        <v>0</v>
-      </c>
-      <c r="O7" s="40">
-        <v>0</v>
-      </c>
-      <c r="P7" s="42">
-        <f>SUM(C7:M7)</f>
-        <v>196</v>
-      </c>
-      <c r="Q7" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="50">
-        <f>Q7/'CL IBNR'!R9</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="51">
-        <f t="shared" si="1"/>
-        <v>196</v>
-      </c>
-      <c r="T7" s="50">
-        <f>S7/'CL IBNR'!S9</f>
-        <v>0.99861095496254371</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="40">
-        <v>1</v>
-      </c>
-      <c r="D8" s="40">
-        <v>26</v>
-      </c>
-      <c r="E8" s="40">
-        <v>63</v>
-      </c>
-      <c r="F8" s="40">
-        <v>43</v>
-      </c>
-      <c r="G8" s="40">
-        <v>30</v>
-      </c>
-      <c r="H8" s="40">
-        <v>14</v>
-      </c>
-      <c r="I8" s="40">
-        <v>7</v>
-      </c>
-      <c r="J8" s="40">
-        <v>8</v>
-      </c>
-      <c r="K8" s="40">
-        <v>3</v>
-      </c>
-      <c r="L8" s="40">
-        <v>2</v>
-      </c>
-      <c r="M8" s="40">
-        <v>0</v>
-      </c>
-      <c r="N8" s="40">
-        <v>0</v>
-      </c>
-      <c r="O8" s="40">
-        <v>0</v>
-      </c>
-      <c r="P8" s="42">
-        <f>SUM(C8:L8)</f>
-        <v>197</v>
-      </c>
-      <c r="Q8" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="50">
-        <f>Q8/'CL IBNR'!R10</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="51">
-        <f t="shared" si="1"/>
-        <v>197</v>
-      </c>
-      <c r="T8" s="50">
-        <f>S8/'CL IBNR'!S10</f>
-        <v>0.99683548077801498</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="40">
-        <v>3</v>
-      </c>
-      <c r="D9" s="40">
-        <v>34</v>
-      </c>
-      <c r="E9" s="40">
-        <v>43</v>
-      </c>
-      <c r="F9" s="40">
-        <v>44</v>
-      </c>
-      <c r="G9" s="40">
-        <v>26</v>
-      </c>
-      <c r="H9" s="40">
-        <v>27</v>
-      </c>
-      <c r="I9" s="40">
-        <v>6</v>
-      </c>
-      <c r="J9" s="40">
-        <v>5</v>
-      </c>
-      <c r="K9" s="40">
-        <v>1</v>
-      </c>
-      <c r="L9" s="40">
-        <v>2</v>
-      </c>
-      <c r="M9" s="40">
-        <v>2</v>
-      </c>
-      <c r="N9" s="40">
-        <v>0</v>
-      </c>
-      <c r="O9" s="40">
-        <v>1</v>
-      </c>
-      <c r="P9" s="42">
-        <f>SUM(C9:K9)</f>
-        <v>189</v>
-      </c>
-      <c r="Q9" s="44">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="R9" s="50">
-        <f>Q9/'CL IBNR'!R11</f>
-        <v>3.6493535185136969</v>
-      </c>
-      <c r="S9" s="51">
-        <f t="shared" si="1"/>
-        <v>194</v>
-      </c>
-      <c r="T9" s="50">
-        <f>S9/'CL IBNR'!S11</f>
-        <v>1.0190675647448864</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="40">
-        <v>1</v>
-      </c>
-      <c r="D10" s="40">
-        <v>39</v>
-      </c>
-      <c r="E10" s="40">
-        <v>49</v>
-      </c>
-      <c r="F10" s="40">
-        <v>44</v>
-      </c>
-      <c r="G10" s="40">
-        <v>21</v>
-      </c>
-      <c r="H10" s="40">
-        <v>16</v>
-      </c>
-      <c r="I10" s="40">
-        <v>2</v>
-      </c>
-      <c r="J10" s="40">
-        <v>5</v>
-      </c>
-      <c r="K10" s="40">
-        <v>2</v>
-      </c>
-      <c r="L10" s="40">
-        <v>0</v>
-      </c>
-      <c r="M10" s="40">
-        <v>0</v>
-      </c>
-      <c r="N10" s="40">
-        <v>0</v>
-      </c>
-      <c r="O10" s="40">
-        <v>0</v>
-      </c>
-      <c r="P10" s="42">
-        <f>SUM(C10:J10)</f>
-        <v>177</v>
-      </c>
-      <c r="Q10" s="44">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="R10" s="50">
-        <f>Q10/'CL IBNR'!R12</f>
-        <v>0.68154438808827433</v>
-      </c>
-      <c r="S10" s="51">
-        <f t="shared" si="1"/>
-        <v>179</v>
-      </c>
-      <c r="T10" s="50">
-        <f>S10/'CL IBNR'!S12</f>
-        <v>0.99480637861503673</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="40">
-        <v>2</v>
-      </c>
-      <c r="D11" s="40">
-        <v>44</v>
-      </c>
-      <c r="E11" s="40">
-        <v>51</v>
-      </c>
-      <c r="F11" s="40">
-        <v>46</v>
-      </c>
-      <c r="G11" s="40">
-        <v>23</v>
-      </c>
-      <c r="H11" s="40">
-        <v>12</v>
-      </c>
-      <c r="I11" s="40">
-        <v>10</v>
-      </c>
-      <c r="J11" s="40">
-        <v>5</v>
-      </c>
-      <c r="K11" s="40">
-        <v>1</v>
-      </c>
-      <c r="L11" s="40">
-        <v>1</v>
-      </c>
-      <c r="M11" s="40">
-        <v>1</v>
-      </c>
-      <c r="N11" s="40">
-        <v>0</v>
-      </c>
-      <c r="O11" s="40">
-        <v>0</v>
-      </c>
-      <c r="P11" s="42">
-        <f>SUM(C11:I11)</f>
-        <v>188</v>
-      </c>
-      <c r="Q11" s="44">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="R11" s="50">
-        <f>Q11/'CL IBNR'!R13</f>
-        <v>1.1182640983411187</v>
-      </c>
-      <c r="S11" s="51">
-        <f t="shared" si="1"/>
-        <v>196</v>
-      </c>
-      <c r="T11" s="50">
-        <f>S11/'CL IBNR'!S13</f>
-        <v>1.004335320353267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="40">
-        <v>3</v>
-      </c>
-      <c r="D12" s="40">
-        <v>42</v>
-      </c>
-      <c r="E12" s="40">
-        <v>58</v>
-      </c>
-      <c r="F12" s="40">
-        <v>38</v>
-      </c>
-      <c r="G12" s="40">
-        <v>26</v>
-      </c>
-      <c r="H12" s="40">
-        <v>15</v>
-      </c>
-      <c r="I12" s="40">
-        <v>10</v>
-      </c>
-      <c r="J12" s="40">
-        <v>6</v>
-      </c>
-      <c r="K12" s="40">
-        <v>1</v>
-      </c>
-      <c r="L12" s="40">
-        <v>2</v>
-      </c>
-      <c r="M12" s="40">
-        <v>1</v>
-      </c>
-      <c r="N12" s="40">
-        <v>0</v>
-      </c>
-      <c r="O12" s="40">
-        <v>0</v>
-      </c>
-      <c r="P12" s="42">
-        <f>SUM(C12:H12)</f>
-        <v>182</v>
-      </c>
-      <c r="Q12" s="44">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="R12" s="50">
-        <f>Q12/'CL IBNR'!R14</f>
-        <v>1.2479339691727276</v>
-      </c>
-      <c r="S12" s="51">
-        <f t="shared" si="1"/>
-        <v>202</v>
-      </c>
-      <c r="T12" s="50">
-        <f>S12/'CL IBNR'!S14</f>
-        <v>1.020065553069796</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="40">
-        <v>6</v>
-      </c>
-      <c r="D13" s="40">
-        <v>22</v>
-      </c>
-      <c r="E13" s="40">
-        <v>61</v>
-      </c>
-      <c r="F13" s="40">
-        <v>38</v>
-      </c>
-      <c r="G13" s="40">
-        <v>34</v>
-      </c>
-      <c r="H13" s="40">
-        <v>15</v>
-      </c>
-      <c r="I13" s="40">
-        <v>8</v>
-      </c>
-      <c r="J13" s="40">
-        <v>4</v>
-      </c>
-      <c r="K13" s="40">
-        <v>2</v>
-      </c>
-      <c r="L13" s="40">
-        <v>2</v>
-      </c>
-      <c r="M13" s="40">
-        <v>1</v>
-      </c>
-      <c r="N13" s="40">
-        <v>0</v>
-      </c>
-      <c r="O13" s="40">
-        <v>0</v>
-      </c>
-      <c r="P13" s="42">
-        <f>SUM(C13:G13)</f>
-        <v>161</v>
-      </c>
-      <c r="Q13" s="44">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="R13" s="50">
-        <f>Q13/'CL IBNR'!R15</f>
-        <v>1.0382844279729591</v>
-      </c>
-      <c r="S13" s="51">
-        <f t="shared" si="1"/>
-        <v>193</v>
-      </c>
-      <c r="T13" s="50">
-        <f>S13/'CL IBNR'!S15</f>
-        <v>1.0061512269739077</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="40">
-        <v>4</v>
-      </c>
-      <c r="D14" s="40">
-        <v>33</v>
-      </c>
-      <c r="E14" s="40">
-        <v>57</v>
-      </c>
-      <c r="F14" s="40">
-        <v>45</v>
-      </c>
-      <c r="G14" s="40">
-        <v>26</v>
-      </c>
-      <c r="H14" s="40">
-        <v>21</v>
-      </c>
-      <c r="I14" s="40">
-        <v>16</v>
-      </c>
-      <c r="J14" s="40">
-        <v>3</v>
-      </c>
-      <c r="K14" s="40">
-        <v>1</v>
-      </c>
-      <c r="L14" s="40">
-        <v>2</v>
-      </c>
-      <c r="M14" s="40">
-        <v>1</v>
-      </c>
-      <c r="N14" s="40">
-        <v>1</v>
-      </c>
-      <c r="O14" s="40">
-        <v>0</v>
-      </c>
-      <c r="P14" s="42">
-        <f>SUM(C14:F14)</f>
-        <v>139</v>
-      </c>
-      <c r="Q14" s="44">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="R14" s="50">
-        <f>Q14/'CL IBNR'!R16</f>
-        <v>1.1534839523488229</v>
-      </c>
-      <c r="S14" s="51">
-        <f t="shared" si="1"/>
-        <v>210</v>
-      </c>
-      <c r="T14" s="50">
-        <f>S14/'CL IBNR'!S16</f>
-        <v>1.0471065555749177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="40">
-        <v>0</v>
-      </c>
-      <c r="D15" s="40">
-        <v>35</v>
-      </c>
-      <c r="E15" s="40">
-        <v>47</v>
-      </c>
-      <c r="F15" s="40">
-        <v>50</v>
-      </c>
-      <c r="G15" s="40">
-        <v>34</v>
-      </c>
-      <c r="H15" s="40">
-        <v>20</v>
-      </c>
-      <c r="I15" s="40">
-        <v>4</v>
-      </c>
-      <c r="J15" s="40">
-        <v>1</v>
-      </c>
-      <c r="K15" s="40">
-        <v>0</v>
-      </c>
-      <c r="L15" s="40">
-        <v>0</v>
-      </c>
-      <c r="M15" s="40">
-        <v>0</v>
-      </c>
-      <c r="N15" s="40">
-        <v>0</v>
-      </c>
-      <c r="O15" s="40">
-        <v>0</v>
-      </c>
-      <c r="P15" s="42">
-        <f>SUM(C15:E15)</f>
-        <v>82</v>
-      </c>
-      <c r="Q15" s="44">
-        <f t="shared" si="0"/>
-        <v>109</v>
-      </c>
-      <c r="R15" s="50">
-        <f>Q15/'CL IBNR'!R17</f>
-        <v>1.2011475475483577</v>
-      </c>
-      <c r="S15" s="51">
-        <f t="shared" si="1"/>
-        <v>191</v>
-      </c>
-      <c r="T15" s="50">
-        <f>S15/'CL IBNR'!S17</f>
-        <v>1.1056660541148542</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="40">
-        <v>1</v>
-      </c>
-      <c r="D16" s="40">
-        <v>32</v>
-      </c>
-      <c r="E16" s="40">
-        <v>41</v>
-      </c>
-      <c r="F16" s="40">
-        <v>33</v>
-      </c>
-      <c r="G16" s="40">
-        <v>16</v>
-      </c>
-      <c r="H16" s="40">
-        <v>15</v>
-      </c>
-      <c r="I16" s="40">
-        <v>13</v>
-      </c>
-      <c r="J16" s="40">
-        <v>1</v>
-      </c>
-      <c r="K16" s="40">
-        <v>5</v>
-      </c>
-      <c r="L16" s="40">
-        <v>1</v>
-      </c>
-      <c r="M16" s="40">
-        <v>1</v>
-      </c>
-      <c r="N16" s="40">
-        <v>0</v>
-      </c>
-      <c r="O16" s="40">
-        <v>0</v>
-      </c>
-      <c r="P16" s="42">
-        <f>SUM(C16:D16)</f>
-        <v>33</v>
-      </c>
-      <c r="Q16" s="44">
-        <f t="shared" si="0"/>
-        <v>126</v>
-      </c>
-      <c r="R16" s="50">
-        <f>Q16/'CL IBNR'!R18</f>
-        <v>0.94387657647030854</v>
-      </c>
-      <c r="S16" s="51">
-        <f t="shared" si="1"/>
-        <v>159</v>
-      </c>
-      <c r="T16" s="50">
-        <f>S16/'CL IBNR'!S18</f>
-        <v>0.95500067039584469</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="40">
-        <v>5</v>
-      </c>
-      <c r="D17" s="40">
-        <v>31</v>
-      </c>
-      <c r="E17" s="40">
-        <v>49</v>
-      </c>
-      <c r="F17" s="40">
-        <v>37</v>
-      </c>
-      <c r="G17" s="40">
-        <v>24</v>
-      </c>
-      <c r="H17" s="40">
-        <v>19</v>
-      </c>
-      <c r="I17" s="40">
-        <v>9</v>
-      </c>
-      <c r="J17" s="40">
-        <v>3</v>
-      </c>
-      <c r="K17" s="40">
-        <v>5</v>
-      </c>
-      <c r="L17" s="40">
-        <v>2</v>
-      </c>
-      <c r="M17" s="40">
-        <v>2</v>
-      </c>
-      <c r="N17" s="40">
-        <v>0</v>
-      </c>
-      <c r="O17" s="40">
-        <v>0</v>
-      </c>
-      <c r="P17" s="42">
-        <f>SUM(C17)</f>
-        <v>5</v>
-      </c>
-      <c r="Q17" s="44">
-        <f t="shared" si="0"/>
-        <v>181</v>
-      </c>
-      <c r="R17" s="50">
-        <f>Q17/'CL IBNR'!R19</f>
-        <v>0.56152198374001727</v>
-      </c>
-      <c r="S17" s="51">
-        <f t="shared" si="1"/>
-        <v>186</v>
-      </c>
-      <c r="T17" s="53">
-        <f>S17/'CL IBNR'!S19</f>
-        <v>0.56821961300644419</v>
-      </c>
-      <c r="U17" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="54"/>
-      <c r="Z17" s="54"/>
-      <c r="AA17" s="54"/>
-    </row>
-    <row r="18" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P18" s="6"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="3"/>
-    </row>
-    <row r="19" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="44">
-        <f>SUM(Q2:Q17)</f>
-        <v>554</v>
-      </c>
-      <c r="R19" s="50">
-        <f>Q19/'CL IBNR'!R21</f>
-        <v>0.83017073288596044</v>
-      </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="52">
-        <f>AVERAGE(T2:T17)</f>
-        <v>0.98180750921263926</v>
-      </c>
-      <c r="U19" s="52" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O20" t="str">
-        <f>IF('CL IBNR'!O4&gt;0,comparison!O2/'CL IBNR'!O4,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O21" t="str">
-        <f>IF('CL IBNR'!O5&gt;0,comparison!O3/'CL IBNR'!O5,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O22" t="str">
-        <f>IF('CL IBNR'!O6&gt;0,comparison!O4/'CL IBNR'!O6,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O23" t="str">
-        <f>IF('CL IBNR'!O7&gt;0,comparison!O5/'CL IBNR'!O7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O24" t="str">
-        <f>IF('CL IBNR'!O8&gt;0,comparison!O6/'CL IBNR'!O8,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="M25" t="str">
-        <f>IF('CL IBNR'!M9&gt;0,comparison!M7/'CL IBNR'!M9,"")</f>
-        <v/>
-      </c>
-      <c r="N25">
-        <f>IF('CL IBNR'!N9&gt;0,comparison!N7/'CL IBNR'!N9,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O25" t="str">
-        <f>IF('CL IBNR'!O9&gt;0,comparison!O7/'CL IBNR'!O9,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="L26">
-        <f>IF('CL IBNR'!L10&gt;0,comparison!L8/'CL IBNR'!L10,"")</f>
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <f>IF('CL IBNR'!M10&gt;0,comparison!M8/'CL IBNR'!M10,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <f>IF('CL IBNR'!N10&gt;0,comparison!N8/'CL IBNR'!N10,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O26" t="str">
-        <f>IF('CL IBNR'!O10&gt;0,comparison!O8/'CL IBNR'!O10,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="K27">
-        <f>IF('CL IBNR'!K11&gt;0,comparison!K9/'CL IBNR'!K11,"")</f>
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <f>IF('CL IBNR'!L11&gt;0,comparison!L9/'CL IBNR'!L11,"")</f>
-        <v>2.6052663548772403</v>
-      </c>
-      <c r="M27">
-        <f>IF('CL IBNR'!M11&gt;0,comparison!M9/'CL IBNR'!M11,"")</f>
-        <v>5.9172086389563168</v>
-      </c>
-      <c r="N27">
-        <f>IF('CL IBNR'!N11&gt;0,comparison!N9/'CL IBNR'!N11,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O27" t="str">
-        <f>IF('CL IBNR'!O11&gt;0,comparison!O9/'CL IBNR'!O11,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="J28">
-        <f>IF('CL IBNR'!J12&gt;0,comparison!J10/'CL IBNR'!J12,"")</f>
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <f>IF('CL IBNR'!K12&gt;0,comparison!K10/'CL IBNR'!K12,"")</f>
-        <v>1.2198754256790159</v>
-      </c>
-      <c r="L28">
-        <f>IF('CL IBNR'!L12&gt;0,comparison!L10/'CL IBNR'!L12,"")</f>
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <f>IF('CL IBNR'!M12&gt;0,comparison!M10/'CL IBNR'!M12,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <f>IF('CL IBNR'!N12&gt;0,comparison!N10/'CL IBNR'!N12,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O28" t="str">
-        <f>IF('CL IBNR'!O12&gt;0,comparison!O10/'CL IBNR'!O12,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="I29">
-        <f>IF('CL IBNR'!I13&gt;0,comparison!I11/'CL IBNR'!I13,"")</f>
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <f>IF('CL IBNR'!J13&gt;0,comparison!J11/'CL IBNR'!J13,"")</f>
-        <v>1.2590579573880309</v>
-      </c>
-      <c r="K29">
-        <f>IF('CL IBNR'!K13&gt;0,comparison!K11/'CL IBNR'!K13,"")</f>
-        <v>0.56237061706006308</v>
-      </c>
-      <c r="L29">
-        <f>IF('CL IBNR'!L13&gt;0,comparison!L11/'CL IBNR'!L13,"")</f>
-        <v>1.2707015248510709</v>
-      </c>
-      <c r="M29">
-        <f>IF('CL IBNR'!M13&gt;0,comparison!M11/'CL IBNR'!M13,"")</f>
-        <v>2.8860795850326846</v>
-      </c>
-      <c r="N29">
-        <f>IF('CL IBNR'!N13&gt;0,comparison!N11/'CL IBNR'!N13,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O29" t="str">
-        <f>IF('CL IBNR'!O13&gt;0,comparison!O11/'CL IBNR'!O13,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="H30">
-        <f>IF('CL IBNR'!H14&gt;0,comparison!H12/'CL IBNR'!H14,"")</f>
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <f>IF('CL IBNR'!I14&gt;0,comparison!I12/'CL IBNR'!I14,"")</f>
-        <v>1.1406095222844017</v>
-      </c>
-      <c r="J30">
-        <f>IF('CL IBNR'!J14&gt;0,comparison!J12/'CL IBNR'!J14,"")</f>
-        <v>1.4889530918906575</v>
-      </c>
-      <c r="K30">
-        <f>IF('CL IBNR'!K14&gt;0,comparison!K12/'CL IBNR'!K14,"")</f>
-        <v>0.55421294954863332</v>
-      </c>
-      <c r="L30">
-        <f>IF('CL IBNR'!L14&gt;0,comparison!L12/'CL IBNR'!L14,"")</f>
-        <v>2.5045378215712959</v>
-      </c>
-      <c r="M30">
-        <f>IF('CL IBNR'!M14&gt;0,comparison!M12/'CL IBNR'!M14,"")</f>
-        <v>2.8442145285165701</v>
-      </c>
-      <c r="N30">
-        <f>IF('CL IBNR'!N14&gt;0,comparison!N12/'CL IBNR'!N14,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O30" t="str">
-        <f>IF('CL IBNR'!O14&gt;0,comparison!O12/'CL IBNR'!O14,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G31">
-        <f>IF('CL IBNR'!G15&gt;0,comparison!G13/'CL IBNR'!G15,"")</f>
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <f>IF('CL IBNR'!H15&gt;0,comparison!H13/'CL IBNR'!H15,"")</f>
-        <v>0.98065661047027464</v>
-      </c>
-      <c r="I31">
-        <f>IF('CL IBNR'!I15&gt;0,comparison!I13/'CL IBNR'!I15,"")</f>
-        <v>0.94201153225831835</v>
-      </c>
-      <c r="J31">
-        <f>IF('CL IBNR'!J15&gt;0,comparison!J13/'CL IBNR'!J15,"")</f>
-        <v>1.0247525235042338</v>
-      </c>
-      <c r="K31">
-        <f>IF('CL IBNR'!K15&gt;0,comparison!K13/'CL IBNR'!K15,"")</f>
-        <v>1.1442894776910673</v>
-      </c>
-      <c r="L31">
-        <f>IF('CL IBNR'!L15&gt;0,comparison!L13/'CL IBNR'!L15,"")</f>
-        <v>2.5855731790798324</v>
-      </c>
-      <c r="M31">
-        <f>IF('CL IBNR'!M15&gt;0,comparison!M13/'CL IBNR'!M15,"")</f>
-        <v>2.9362402664248579</v>
-      </c>
-      <c r="N31">
-        <f>IF('CL IBNR'!N15&gt;0,comparison!N13/'CL IBNR'!N15,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O31" t="str">
-        <f>IF('CL IBNR'!O15&gt;0,comparison!O13/'CL IBNR'!O15,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F32">
-        <f>IF('CL IBNR'!F16&gt;0,comparison!F14/'CL IBNR'!F16,"")</f>
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <f>IF('CL IBNR'!G16&gt;0,comparison!G14/'CL IBNR'!G16,"")</f>
-        <v>0.88647935519779031</v>
-      </c>
-      <c r="H32">
-        <f>IF('CL IBNR'!H16&gt;0,comparison!H14/'CL IBNR'!H16,"")</f>
-        <v>1.3131387810370769</v>
-      </c>
-      <c r="I32">
-        <f>IF('CL IBNR'!I16&gt;0,comparison!I14/'CL IBNR'!I16,"")</f>
-        <v>1.8019878022620504</v>
-      </c>
-      <c r="J32">
-        <f>IF('CL IBNR'!J16&gt;0,comparison!J14/'CL IBNR'!J16,"")</f>
-        <v>0.73509910088294661</v>
-      </c>
-      <c r="K32">
-        <f>IF('CL IBNR'!K16&gt;0,comparison!K14/'CL IBNR'!K16,"")</f>
-        <v>0.54723206947180858</v>
-      </c>
-      <c r="L32">
-        <f>IF('CL IBNR'!L16&gt;0,comparison!L14/'CL IBNR'!L16,"")</f>
-        <v>2.4729906009686364</v>
-      </c>
-      <c r="M32">
-        <f>IF('CL IBNR'!M16&gt;0,comparison!M14/'CL IBNR'!M16,"")</f>
-        <v>2.808388731677093</v>
-      </c>
-      <c r="N32">
-        <f>IF('CL IBNR'!N16&gt;0,comparison!N14/'CL IBNR'!N16,"")</f>
-        <v>3.589676042718438</v>
-      </c>
-      <c r="O32" t="str">
-        <f>IF('CL IBNR'!O16&gt;0,comparison!O14/'CL IBNR'!O16,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="E33">
-        <f>IF('CL IBNR'!E17&gt;0,comparison!E15/'CL IBNR'!E17,"")</f>
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <f>IF('CL IBNR'!F17&gt;0,comparison!F15/'CL IBNR'!F17,"")</f>
-        <v>1.3252751996546512</v>
-      </c>
-      <c r="G33">
-        <f>IF('CL IBNR'!G17&gt;0,comparison!G15/'CL IBNR'!G17,"")</f>
-        <v>1.345839343777061</v>
-      </c>
-      <c r="H33">
-        <f>IF('CL IBNR'!H17&gt;0,comparison!H15/'CL IBNR'!H17,"")</f>
-        <v>1.4519121970184781</v>
-      </c>
-      <c r="I33">
-        <f>IF('CL IBNR'!I17&gt;0,comparison!I15/'CL IBNR'!I17,"")</f>
-        <v>0.52301106937499808</v>
-      </c>
-      <c r="J33">
-        <f>IF('CL IBNR'!J17&gt;0,comparison!J15/'CL IBNR'!J17,"")</f>
-        <v>0.28447470907166511</v>
-      </c>
-      <c r="K33">
-        <f>IF('CL IBNR'!K17&gt;0,comparison!K15/'CL IBNR'!K17,"")</f>
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <f>IF('CL IBNR'!L17&gt;0,comparison!L15/'CL IBNR'!L17,"")</f>
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <f>IF('CL IBNR'!M17&gt;0,comparison!M15/'CL IBNR'!M17,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <f>IF('CL IBNR'!N17&gt;0,comparison!N15/'CL IBNR'!N17,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O33" t="str">
-        <f>IF('CL IBNR'!O17&gt;0,comparison!O15/'CL IBNR'!O17,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D34">
-        <f>IF('CL IBNR'!D18&gt;0,comparison!D16/'CL IBNR'!D18,"")</f>
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <f>IF('CL IBNR'!E18&gt;0,comparison!E16/'CL IBNR'!E18,"")</f>
-        <v>0.89070256960165217</v>
-      </c>
-      <c r="F34">
-        <f>IF('CL IBNR'!F18&gt;0,comparison!F16/'CL IBNR'!F18,"")</f>
-        <v>0.90754036343984312</v>
-      </c>
-      <c r="G34">
-        <f>IF('CL IBNR'!G18&gt;0,comparison!G16/'CL IBNR'!G18,"")</f>
-        <v>0.65712838770218185</v>
-      </c>
-      <c r="H34">
-        <f>IF('CL IBNR'!H18&gt;0,comparison!H16/'CL IBNR'!H18,"")</f>
-        <v>1.1298415975896396</v>
-      </c>
-      <c r="I34">
-        <f>IF('CL IBNR'!I18&gt;0,comparison!I16/'CL IBNR'!I18,"")</f>
-        <v>1.763640993376707</v>
-      </c>
-      <c r="J34">
-        <f>IF('CL IBNR'!J18&gt;0,comparison!J16/'CL IBNR'!J18,"")</f>
-        <v>0.29516142957900693</v>
-      </c>
-      <c r="K34">
-        <f>IF('CL IBNR'!K18&gt;0,comparison!K16/'CL IBNR'!K18,"")</f>
-        <v>3.295918871539282</v>
-      </c>
-      <c r="L34">
-        <f>IF('CL IBNR'!L18&gt;0,comparison!L16/'CL IBNR'!L18,"")</f>
-        <v>1.4894551773508038</v>
-      </c>
-      <c r="M34">
-        <f>IF('CL IBNR'!M18&gt;0,comparison!M16/'CL IBNR'!M18,"")</f>
-        <v>3.3829236025172844</v>
-      </c>
-      <c r="N34">
-        <f>IF('CL IBNR'!N18&gt;0,comparison!N16/'CL IBNR'!N18,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O34" t="str">
-        <f>IF('CL IBNR'!O18&gt;0,comparison!O16/'CL IBNR'!O18,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C35">
-        <f>IF('CL IBNR'!C19&gt;0,comparison!C17/'CL IBNR'!C19,"")</f>
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <f>IF('CL IBNR'!D19&gt;0,comparison!D17/'CL IBNR'!D19,"")</f>
-        <v>0.51769383697813121</v>
-      </c>
-      <c r="E35">
-        <f>IF('CL IBNR'!E19&gt;0,comparison!E17/'CL IBNR'!E19,"")</f>
-        <v>0.5414291726285666</v>
-      </c>
-      <c r="F35">
-        <f>IF('CL IBNR'!F19&gt;0,comparison!F17/'CL IBNR'!F19,"")</f>
-        <v>0.51754778891211595</v>
-      </c>
-      <c r="G35">
-        <f>IF('CL IBNR'!G19&gt;0,comparison!G17/'CL IBNR'!G19,"")</f>
-        <v>0.50134675891113245</v>
-      </c>
-      <c r="H35">
-        <f>IF('CL IBNR'!H19&gt;0,comparison!H17/'CL IBNR'!H19,"")</f>
-        <v>0.72790822338655814</v>
-      </c>
-      <c r="I35">
-        <f>IF('CL IBNR'!I19&gt;0,comparison!I17/'CL IBNR'!I19,"")</f>
-        <v>0.62102068458379789</v>
-      </c>
-      <c r="J35">
-        <f>IF('CL IBNR'!J19&gt;0,comparison!J17/'CL IBNR'!J19,"")</f>
-        <v>0.45037843089523327</v>
-      </c>
-      <c r="K35">
-        <f>IF('CL IBNR'!K19&gt;0,comparison!K17/'CL IBNR'!K19,"")</f>
-        <v>1.6763829563131902</v>
-      </c>
-      <c r="L35">
-        <f>IF('CL IBNR'!L19&gt;0,comparison!L17/'CL IBNR'!L19,"")</f>
-        <v>1.5151448629785051</v>
-      </c>
-      <c r="M35">
-        <f>IF('CL IBNR'!M19&gt;0,comparison!M17/'CL IBNR'!M19,"")</f>
-        <v>3.4412712756616188</v>
-      </c>
-      <c r="N35">
-        <f>IF('CL IBNR'!N19&gt;0,comparison!N17/'CL IBNR'!N19,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O35" t="str">
-        <f>IF('CL IBNR'!O19&gt;0,comparison!O17/'CL IBNR'!O19,"")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C20:O35">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/static/output/Excel/LRcountsxl2-sol1.xlsx
+++ b/static/output/Excel/LRcountsxl2-sol1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adolphus\Documents\GitHub\ACTL20004-ACTL90021-Tutorials\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-Tutorials/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3CEF9B-2C6D-4040-BF4B-B33997237E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25259D26-250B-AF49-862B-E2CAE06D5280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4880" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -444,7 +444,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -462,7 +462,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1177,7 +1177,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1356,19 +1356,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="1">
-                  <c:v>9.2773186432174207E-2</c:v>
+                  <c:v>9.2644320297951582E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1018857098862168</c:v>
+                  <c:v>0.10174418604651163</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1309197316866028E-2</c:v>
+                  <c:v>9.1182364729458912E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11043025792319858</c:v>
+                  <c:v>0.11027686532144533</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10146903162640528</c:v>
+                  <c:v>0.10132808657156911</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9.1417910447761194E-2</c:v>
@@ -1515,52 +1515,52 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="1">
-                  <c:v>9.2773186432174207E-2</c:v>
+                  <c:v>9.2776810950701616E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1018857098862168</c:v>
+                  <c:v>0.1018896904182796</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1309197316866028E-2</c:v>
+                  <c:v>9.1312764639388047E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11043025792319858</c:v>
+                  <c:v>0.11043457227879228</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10146903162640528</c:v>
+                  <c:v>0.10147299587943173</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.1545070673884343E-2</c:v>
+                  <c:v>9.1548647211648224E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5333038757032917E-2</c:v>
+                  <c:v>9.5337880913771766E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.7226815977718276E-2</c:v>
+                  <c:v>9.7229691776929278E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.4199584336922553E-2</c:v>
+                  <c:v>8.4188982416732824E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.10503441610853555</c:v>
+                  <c:v>0.10495926879733071</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.5388482165810334E-2</c:v>
+                  <c:v>9.5145328215535646E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.4632496893869669E-2</c:v>
+                  <c:v>9.439127001907674E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.9480483731164859E-2</c:v>
+                  <c:v>9.9226898895288962E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.5772866606746892E-2</c:v>
+                  <c:v>8.555422373846476E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.2035395092272834E-2</c:v>
+                  <c:v>9.1800788467094815E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.17420874179038018</c:v>
+                  <c:v>0.17376466780181335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3255,9 +3255,9 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>2148</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2064</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1996</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2131</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2033</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2144</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2073</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1958</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2137</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1858</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2076</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2027</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2014</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1809</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1879</v>
       </c>
@@ -4114,25 +4114,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D551A035-0ED8-44FF-B00A-43165118053F}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53:H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="30"/>
-    <col min="2" max="2" width="17.140625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="30"/>
+    <col min="2" max="2" width="17.1640625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="30" customWidth="1"/>
     <col min="5" max="5" width="11" style="30" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="30" customWidth="1"/>
     <col min="7" max="7" width="11" style="30" customWidth="1"/>
-    <col min="8" max="11" width="9.140625" style="30"/>
-    <col min="12" max="12" width="11.140625" style="30" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="30"/>
+    <col min="8" max="11" width="9.1640625" style="30"/>
+    <col min="12" max="12" width="11.1640625" style="30" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4152,7 +4152,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -4222,7 +4222,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>0</v>
       </c>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -4353,7 +4353,7 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="10"/>
     </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -4414,7 +4414,7 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="10"/>
     </row>
-    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>3</v>
       </c>
@@ -4472,7 +4472,7 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="10"/>
     </row>
-    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -4527,7 +4527,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="10"/>
     </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>5</v>
       </c>
@@ -4579,7 +4579,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="10"/>
     </row>
-    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>6</v>
       </c>
@@ -4628,7 +4628,7 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="10"/>
     </row>
-    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>7</v>
       </c>
@@ -4674,7 +4674,7 @@
       <c r="Q11" s="9"/>
       <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>8</v>
       </c>
@@ -4717,7 +4717,7 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="10"/>
     </row>
-    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>9</v>
       </c>
@@ -4757,7 +4757,7 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="10"/>
     </row>
-    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>10</v>
       </c>
@@ -4794,7 +4794,7 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="10"/>
     </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>11</v>
       </c>
@@ -4828,7 +4828,7 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="10"/>
     </row>
-    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>12</v>
       </c>
@@ -4859,7 +4859,7 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="10"/>
     </row>
-    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>13</v>
       </c>
@@ -4884,7 +4884,7 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="10"/>
     </row>
-    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>14</v>
       </c>
@@ -4909,7 +4909,7 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="10"/>
     </row>
-    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>15</v>
       </c>
@@ -4931,7 +4931,7 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="10"/>
     </row>
-    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -4946,7 +4946,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -4966,7 +4966,7 @@
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
     </row>
-    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -4983,7 +4983,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -4998,7 +4998,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>4</v>
       </c>
@@ -5067,11 +5067,11 @@
       </c>
       <c r="R24" s="12"/>
     </row>
-    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="R25" s="31"/>
     </row>
-    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
         <v>32</v>
       </c>
@@ -5137,7 +5137,7 @@
       </c>
       <c r="R26" s="32"/>
     </row>
-    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="30" t="s">
         <v>33</v>
       </c>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="R28" s="32"/>
     </row>
-    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>5</v>
       </c>
@@ -5257,7 +5257,7 @@
       <c r="Q30" s="13"/>
       <c r="R30" s="13"/>
     </row>
-    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="13"/>
@@ -5277,7 +5277,7 @@
       <c r="Q31" s="31"/>
       <c r="R31" s="31"/>
     </row>
-    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>1.0016313213703099</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
         <v>33</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>1.0016313213703099</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -5430,7 +5430,7 @@
       <c r="Q36" s="31"/>
       <c r="R36" s="31"/>
     </row>
-    <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="G37" s="13"/>
@@ -5446,7 +5446,7 @@
       <c r="Q37" s="31"/>
       <c r="R37" s="31"/>
     </row>
-    <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
         <v>32</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B40" s="30" t="s">
         <v>33</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="C41" s="16" t="s">
         <v>7</v>
       </c>
@@ -5568,7 +5568,7 @@
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
     </row>
-    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="17"/>
@@ -5588,7 +5588,7 @@
       <c r="Q43" s="31"/>
       <c r="R43" s="31"/>
     </row>
-    <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>8</v>
       </c>
@@ -5658,12 +5658,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" s="30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>8</v>
       </c>
@@ -5690,32 +5690,32 @@
       </c>
       <c r="H47" s="20">
         <f>H56</f>
-        <v>1.0481716607406639</v>
+        <v>1.0462483182006135</v>
       </c>
       <c r="I47" s="20">
         <f t="shared" ref="I47:L47" si="2">I56</f>
-        <v>1.021123526939161</v>
+        <v>1.0205214579569586</v>
       </c>
       <c r="J47" s="20">
         <f t="shared" si="2"/>
-        <v>1.0092627778135288</v>
+        <v>1.0091058497490106</v>
       </c>
       <c r="K47" s="20">
         <f t="shared" si="2"/>
-        <v>1.0040617768552533</v>
+        <v>1.0040404780121113</v>
       </c>
       <c r="L47" s="20">
         <f t="shared" si="2"/>
-        <v>1.0017811105430787</v>
+        <v>1.0017928543756314</v>
       </c>
       <c r="M47" s="21">
         <f>B63</f>
-        <v>1.0013909771673879</v>
+        <v>1.0014301001110908</v>
       </c>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
     </row>
-    <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>10</v>
       </c>
@@ -5734,7 +5734,7 @@
       <c r="N48" s="7"/>
       <c r="O48" s="33"/>
     </row>
-    <row r="49" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -5751,7 +5751,7 @@
       <c r="N49" s="7"/>
       <c r="O49" s="33"/>
     </row>
-    <row r="50" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="23"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -5768,7 +5768,7 @@
       <c r="N50" s="7"/>
       <c r="O50" s="33"/>
     </row>
-    <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
         <v>11</v>
       </c>
@@ -5787,7 +5787,7 @@
       <c r="N51" s="7"/>
       <c r="O51" s="33"/>
     </row>
-    <row r="52" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -5806,7 +5806,7 @@
       <c r="N52" s="7"/>
       <c r="O52" s="33"/>
     </row>
-    <row r="53" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>13</v>
       </c>
@@ -5819,7 +5819,10 @@
         <f>LN(G44-1)</f>
         <v>-2.3538212428917378</v>
       </c>
-      <c r="H53" s="24"/>
+      <c r="H53" s="24">
+        <f>LN(H44-1)</f>
+        <v>-3.1709943386349853</v>
+      </c>
       <c r="I53" s="24">
         <f>LN(I44-1)</f>
         <v>-3.738830384519332</v>
@@ -5840,7 +5843,7 @@
       <c r="N53" s="7"/>
       <c r="O53" s="33"/>
     </row>
-    <row r="54" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -5859,13 +5862,13 @@
       <c r="N54" s="7"/>
       <c r="O54" s="33"/>
     </row>
-    <row r="55" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B55" s="7">
         <f>SLOPE(G53:L53,G2:L2)</f>
-        <v>-0.82438345658548107</v>
+        <v>-0.81255403175465257</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -5875,39 +5878,39 @@
       </c>
       <c r="G55" s="7">
         <f t="shared" ref="G55:L55" si="4">_xlfn.FORECAST.LINEAR(G2,$G$53:$L$53,$G$2:$L$2)</f>
-        <v>-2.2086009256898365</v>
+        <v>-2.2611761471601874</v>
       </c>
       <c r="H55" s="7">
         <f t="shared" si="4"/>
-        <v>-3.032984382275318</v>
+        <v>-3.0737301789148397</v>
       </c>
       <c r="I55" s="7">
         <f t="shared" si="4"/>
-        <v>-3.8573678388607986</v>
+        <v>-3.8862842106694924</v>
       </c>
       <c r="J55" s="7">
         <f t="shared" si="4"/>
-        <v>-4.6817512954462792</v>
+        <v>-4.6988382424241451</v>
       </c>
       <c r="K55" s="7">
         <f t="shared" si="4"/>
-        <v>-5.5061347520317607</v>
+        <v>-5.5113922741787977</v>
       </c>
       <c r="L55" s="7">
         <f t="shared" si="4"/>
-        <v>-6.3305182086172422</v>
+        <v>-6.3239463059334504</v>
       </c>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
       <c r="O55" s="33"/>
     </row>
-    <row r="56" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B56" s="7">
         <f>INTERCEPT(G53:L53,G2:L2)</f>
-        <v>1.0889329006520878</v>
+        <v>0.98903997985842285</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -5917,33 +5920,33 @@
       </c>
       <c r="G56" s="25">
         <f>EXP(G55)+1</f>
-        <v>1.1098542352892597</v>
+        <v>1.1042278253753366</v>
       </c>
       <c r="H56" s="25">
         <f t="shared" ref="H56:L56" si="5">EXP(H55)+1</f>
-        <v>1.0481716607406639</v>
+        <v>1.0462483182006135</v>
       </c>
       <c r="I56" s="25">
         <f t="shared" si="5"/>
-        <v>1.021123526939161</v>
+        <v>1.0205214579569586</v>
       </c>
       <c r="J56" s="25">
         <f t="shared" si="5"/>
-        <v>1.0092627778135288</v>
+        <v>1.0091058497490106</v>
       </c>
       <c r="K56" s="25">
         <f t="shared" si="5"/>
-        <v>1.0040617768552533</v>
+        <v>1.0040404780121113</v>
       </c>
       <c r="L56" s="25">
         <f t="shared" si="5"/>
-        <v>1.0017811105430787</v>
+        <v>1.0017928543756314</v>
       </c>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
       <c r="O56" s="33"/>
     </row>
-    <row r="57" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -5960,7 +5963,7 @@
       <c r="N57" s="7"/>
       <c r="O57" s="33"/>
     </row>
-    <row r="58" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -5977,7 +5980,7 @@
       <c r="N58" s="7"/>
       <c r="O58" s="33"/>
     </row>
-    <row r="59" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
         <v>19</v>
       </c>
@@ -5996,13 +5999,13 @@
       <c r="N59" s="7"/>
       <c r="O59" s="33"/>
     </row>
-    <row r="60" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B60" s="7">
         <f>EXP(B56)</f>
-        <v>2.9711019194419959</v>
+        <v>2.6886520728262147</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -6018,13 +6021,13 @@
       <c r="N60" s="7"/>
       <c r="O60" s="33"/>
     </row>
-    <row r="61" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B61" s="7">
         <f>EXP(B55)</f>
-        <v>0.43850526667289524</v>
+        <v>0.4437233342830269</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -6040,13 +6043,13 @@
       <c r="N61" s="7"/>
       <c r="O61" s="33"/>
     </row>
-    <row r="62" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B62" s="26">
         <f>B60*B61^(10)/(1-B61)</f>
-        <v>1.390977167387969E-3</v>
+        <v>1.4301001110907214E-3</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -6062,13 +6065,13 @@
       <c r="N62" s="7"/>
       <c r="O62" s="33"/>
     </row>
-    <row r="63" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B63" s="7">
         <f>1+B62</f>
-        <v>1.0013909771673879</v>
+        <v>1.0014301001110908</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>24</v>
@@ -6086,7 +6089,7 @@
       <c r="N63" s="7"/>
       <c r="O63" s="33"/>
     </row>
-    <row r="64" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -6103,7 +6106,7 @@
       <c r="N64" s="7"/>
       <c r="O64" s="33"/>
     </row>
-    <row r="65" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="23"/>
       <c r="B65" s="23"/>
       <c r="C65" s="23"/>
@@ -6120,7 +6123,7 @@
       <c r="N65" s="23"/>
       <c r="O65" s="33"/>
     </row>
-    <row r="66" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="18" t="s">
         <v>25</v>
       </c>
@@ -6139,7 +6142,7 @@
       <c r="N66" s="7"/>
       <c r="O66" s="33"/>
     </row>
-    <row r="67" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="18">
@@ -6180,116 +6183,116 @@
       </c>
       <c r="O67" s="18"/>
     </row>
-    <row r="68" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="27">
         <f>PRODUCT(C47:$M47)</f>
-        <v>65.467645164824859</v>
+        <v>65.300762159921447</v>
       </c>
       <c r="D68" s="9">
         <f>PRODUCT(D47:$M47)</f>
-        <v>5.0452130218764113</v>
+        <v>5.0323523132416517</v>
       </c>
       <c r="E68" s="9">
         <f>PRODUCT(E47:$M47)</f>
-        <v>2.106665284707173</v>
+        <v>2.1012952025520484</v>
       </c>
       <c r="F68" s="9">
         <f>PRODUCT(F47:$M47)</f>
-        <v>1.4428248575685489</v>
+        <v>1.43914696527268</v>
       </c>
       <c r="G68" s="9">
         <f>PRODUCT(G47:$M47)</f>
-        <v>1.1914290136886572</v>
+        <v>1.1883919523519786</v>
       </c>
       <c r="H68" s="9">
         <f>PRODUCT(H47:$M47)</f>
-        <v>1.088057631737485</v>
+        <v>1.0852840734914946</v>
       </c>
       <c r="I68" s="9">
         <f>PRODUCT(I47:$M47)</f>
-        <v>1.0380528996258458</v>
+        <v>1.037310220348088</v>
       </c>
       <c r="J68" s="9">
         <f>PRODUCT(J47:$M47)</f>
-        <v>1.0165791623051046</v>
+        <v>1.0164511605907234</v>
       </c>
       <c r="K68" s="9">
         <f>PRODUCT(K47:$M47)</f>
-        <v>1.0072492364252505</v>
+        <v>1.0072790290964417</v>
       </c>
       <c r="L68" s="9">
         <f>PRODUCT(L47:$M47)</f>
-        <v>1.0031745651945647</v>
+        <v>1.0032255184479639</v>
       </c>
       <c r="M68" s="9">
         <f>PRODUCT(M47:$M47)</f>
-        <v>1.0013909771673879</v>
+        <v>1.0014301001110908</v>
       </c>
       <c r="N68" s="6">
         <v>1</v>
       </c>
       <c r="O68" s="33"/>
     </row>
-    <row r="69" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="28">
         <f>1/C68</f>
-        <v>1.5274720779743128E-2</v>
+        <v>1.5313756944383005E-2</v>
       </c>
       <c r="D69" s="29">
         <f>1/D68-1/C68</f>
-        <v>0.18293296552882843</v>
+        <v>0.18340047007201557</v>
       </c>
       <c r="E69" s="29">
         <f t="shared" ref="E69:N69" si="6">1/E68-1/D68</f>
-        <v>0.27647616938471686</v>
+        <v>0.27718273347991246</v>
       </c>
       <c r="F69" s="29">
         <f t="shared" si="6"/>
-        <v>0.21840095966344297</v>
+        <v>0.21895910641727667</v>
       </c>
       <c r="G69" s="29">
         <f t="shared" si="6"/>
-        <v>0.14624341025362697</v>
+        <v>0.14661715075746184</v>
       </c>
       <c r="H69" s="29">
         <f t="shared" si="6"/>
-        <v>7.9740738046586324E-2</v>
+        <v>7.994452393726037E-2</v>
       </c>
       <c r="I69" s="29">
         <f t="shared" si="6"/>
-        <v>4.4273078314556513E-2</v>
+        <v>4.2614020909591543E-2</v>
       </c>
       <c r="J69" s="29">
         <f t="shared" si="6"/>
-        <v>2.0349181575210928E-2</v>
+        <v>1.9783337283684088E-2</v>
       </c>
       <c r="K69" s="29">
         <f t="shared" si="6"/>
-        <v>9.1117132408319312E-3</v>
+        <v>8.9584724796012427E-3</v>
       </c>
       <c r="L69" s="29">
         <f t="shared" si="6"/>
-        <v>4.032543990470927E-3</v>
+        <v>4.0112797898071983E-3</v>
       </c>
       <c r="M69" s="29">
         <f t="shared" si="6"/>
-        <v>1.7754741845287247E-3</v>
+        <v>1.7870900835985637E-3</v>
       </c>
       <c r="N69" s="29">
         <f t="shared" si="6"/>
-        <v>1.3890450374562935E-3</v>
+        <v>1.4280578454074488E-3</v>
       </c>
       <c r="O69" s="33"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C70" s="34" t="s">
         <v>29</v>
       </c>
@@ -6298,7 +6301,7 @@
       <c r="F70" s="34"/>
       <c r="G70" s="34"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C71" s="34" t="s">
         <v>30</v>
       </c>
@@ -6321,16 +6324,16 @@
   <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="14" width="6.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="6.5" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -6357,7 +6360,7 @@
       </c>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -6415,7 +6418,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="6"/>
@@ -6436,7 +6439,7 @@
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>0</v>
       </c>
@@ -6487,31 +6490,31 @@
       </c>
       <c r="N4" s="41">
         <f>SUM($C4:M4)*(CL!M$47-1)</f>
-        <v>0.27680445631019146</v>
+        <v>0.28458992210706779</v>
       </c>
       <c r="O4" s="41"/>
       <c r="P4" s="42">
-        <f>SUM(C4:N4)</f>
-        <v>199.2768044563102</v>
+        <f>SUM(C4:M4)</f>
+        <v>199</v>
       </c>
       <c r="Q4" s="43">
         <f>P4/Data!A1</f>
-        <v>9.2773186432174207E-2</v>
+        <v>9.2644320297951582E-2</v>
       </c>
       <c r="R4" s="44">
         <f t="shared" ref="R4:R18" si="0">S4-P4</f>
-        <v>0</v>
+        <v>0.28458992210707379</v>
       </c>
       <c r="S4" s="44">
         <f t="shared" ref="S4:S18" si="1">SUM(C4:O4)</f>
-        <v>199.2768044563102</v>
+        <v>199.28458992210707</v>
       </c>
       <c r="T4" s="43">
         <f>S4/Data!A1</f>
-        <v>9.2773186432174207E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.2776810950701616E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -6562,31 +6565,31 @@
       </c>
       <c r="N5" s="41">
         <f>SUM($C5:M5)*(CL!M$47-1)</f>
-        <v>0.29210520515145832</v>
+        <v>0.30032102332906652</v>
       </c>
       <c r="O5" s="41"/>
       <c r="P5" s="42">
-        <f>SUM(C5:N5)</f>
-        <v>210.29210520515147</v>
+        <f t="shared" ref="P5:P9" si="2">SUM(C5:M5)</f>
+        <v>210</v>
       </c>
       <c r="Q5" s="43">
         <f>P5/Data!A2</f>
-        <v>0.1018857098862168</v>
+        <v>0.10174418604651163</v>
       </c>
       <c r="R5" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.30032102332907584</v>
       </c>
       <c r="S5" s="44">
         <f t="shared" si="1"/>
-        <v>210.29210520515147</v>
+        <v>210.30032102332908</v>
       </c>
       <c r="T5" s="43">
         <f>S5/Data!A2</f>
-        <v>0.1018857098862168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.1018896904182796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -6637,31 +6640,31 @@
       </c>
       <c r="N6" s="41">
         <f>SUM($C6:M6)*(CL!M$47-1)</f>
-        <v>0.25315784446459721</v>
+        <v>0.26027822021852431</v>
       </c>
       <c r="O6" s="41"/>
       <c r="P6" s="42">
-        <f>SUM(C6:N6)</f>
-        <v>182.2531578444646</v>
+        <f t="shared" si="2"/>
+        <v>182</v>
       </c>
       <c r="Q6" s="43">
         <f>P6/Data!A3</f>
-        <v>9.1309197316866028E-2</v>
+        <v>9.1182364729458912E-2</v>
       </c>
       <c r="R6" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.26027822021853808</v>
       </c>
       <c r="S6" s="44">
         <f t="shared" si="1"/>
-        <v>182.2531578444646</v>
+        <v>182.26027822021854</v>
       </c>
       <c r="T6" s="43">
         <f>S6/Data!A3</f>
-        <v>9.1309197316866028E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.1312764639388047E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>3</v>
       </c>
@@ -6712,31 +6715,31 @@
       </c>
       <c r="N7" s="41">
         <f>SUM($C7:M7)*(CL!M$47-1)</f>
-        <v>0.32687963433615574</v>
+        <v>0.33607352610633634</v>
       </c>
       <c r="O7" s="41"/>
       <c r="P7" s="42">
-        <f>SUM(C7:N7)</f>
-        <v>235.32687963433617</v>
+        <f t="shared" si="2"/>
+        <v>235</v>
       </c>
       <c r="Q7" s="43">
         <f>P7/Data!A4</f>
-        <v>0.11043025792319858</v>
+        <v>0.11027686532144533</v>
       </c>
       <c r="R7" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33607352610633257</v>
       </c>
       <c r="S7" s="44">
         <f t="shared" si="1"/>
-        <v>235.32687963433617</v>
+        <v>235.33607352610633</v>
       </c>
       <c r="T7" s="43">
         <f>S7/Data!A4</f>
-        <v>0.11043025792319858</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.11043457227879228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -6787,31 +6790,31 @@
       </c>
       <c r="N8" s="41">
         <f>SUM($C8:M8)*(CL!M$47-1)</f>
-        <v>0.28654129648190674</v>
+        <v>0.29460062288470334</v>
       </c>
       <c r="O8" s="41"/>
       <c r="P8" s="42">
-        <f>SUM(C8:N8)</f>
-        <v>206.28654129648191</v>
+        <f t="shared" si="2"/>
+        <v>206</v>
       </c>
       <c r="Q8" s="43">
         <f>P8/Data!A5</f>
-        <v>0.10146903162640528</v>
+        <v>0.10132808657156911</v>
       </c>
       <c r="R8" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29460062288470112</v>
       </c>
       <c r="S8" s="44">
         <f t="shared" si="1"/>
-        <v>206.28654129648191</v>
+        <v>206.2946006228847</v>
       </c>
       <c r="T8" s="43">
         <f>S8/Data!A5</f>
-        <v>0.10146903162640528</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.10147299587943173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>5</v>
       </c>
@@ -6862,11 +6865,11 @@
       </c>
       <c r="N9" s="41">
         <f>SUM($C9:M9)*(CL!M$47-1)</f>
-        <v>0.27263152480802777</v>
+        <v>0.28029962177379542</v>
       </c>
       <c r="O9" s="41"/>
       <c r="P9" s="42">
-        <f>SUM(C9:M9)</f>
+        <f t="shared" si="2"/>
         <v>196</v>
       </c>
       <c r="Q9" s="43">
@@ -6875,18 +6878,18 @@
       </c>
       <c r="R9" s="44">
         <f t="shared" si="0"/>
-        <v>0.27263152480801978</v>
+        <v>0.28029962177379275</v>
       </c>
       <c r="S9" s="44">
         <f t="shared" si="1"/>
-        <v>196.27263152480802</v>
+        <v>196.28029962177379</v>
       </c>
       <c r="T9" s="43">
         <f>S9/Data!A6</f>
-        <v>9.1545070673884343E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.1548647211648224E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>6</v>
       </c>
@@ -6933,11 +6936,11 @@
       </c>
       <c r="M10" s="41">
         <f>SUM($C10:L10)*(CL!L$47-1)</f>
-        <v>0.35087877698650849</v>
+        <v>0.35319231199937984</v>
       </c>
       <c r="N10" s="41">
         <f>SUM($C10:M10)*(CL!M$47-1)</f>
-        <v>0.27451056634272492</v>
+        <v>0.28223482224951296</v>
       </c>
       <c r="O10" s="41"/>
       <c r="P10" s="42">
@@ -6950,18 +6953,18 @@
       </c>
       <c r="R10" s="44">
         <f t="shared" si="0"/>
-        <v>0.62538934332923191</v>
+        <v>0.63542713424888575</v>
       </c>
       <c r="S10" s="44">
         <f t="shared" si="1"/>
-        <v>197.62538934332923</v>
+        <v>197.63542713424889</v>
       </c>
       <c r="T10" s="43">
         <f>S10/Data!A7</f>
-        <v>9.5333038757032917E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.5337880913771766E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>7</v>
       </c>
@@ -7004,15 +7007,15 @@
       </c>
       <c r="L11" s="41">
         <f>SUM($C11:K11)*(CL!K$47-1)</f>
-        <v>0.76767582564287928</v>
+        <v>0.76365034428903011</v>
       </c>
       <c r="M11" s="41">
         <f>SUM($C11:L11)*(CL!L$47-1)</f>
-        <v>0.33799720814859791</v>
+        <v>0.34021859085553985</v>
       </c>
       <c r="N11" s="41">
         <f>SUM($C11:M11)*(CL!M$47-1)</f>
-        <v>0.26443265058091292</v>
+        <v>0.27186756408293977</v>
       </c>
       <c r="O11" s="41"/>
       <c r="P11" s="42">
@@ -7025,18 +7028,18 @@
       </c>
       <c r="R11" s="44">
         <f t="shared" si="0"/>
-        <v>1.3701056843723904</v>
+        <v>1.3757364992275143</v>
       </c>
       <c r="S11" s="44">
         <f t="shared" si="1"/>
-        <v>190.37010568437239</v>
+        <v>190.37573649922751</v>
       </c>
       <c r="T11" s="43">
         <f>S11/Data!A8</f>
-        <v>9.7226815977718276E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.7229691776929278E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>8</v>
       </c>
@@ -7075,19 +7078,19 @@
       </c>
       <c r="K12" s="41">
         <f>SUM($C12:J12)*(CL!J$47-1)</f>
-        <v>1.6395116729945975</v>
+        <v>1.6117354055748816</v>
       </c>
       <c r="L12" s="41">
         <f>SUM($C12:K12)*(CL!K$47-1)</f>
-        <v>0.7255938339471264</v>
+        <v>0.72167678961126136</v>
       </c>
       <c r="M12" s="41">
         <f>SUM($C12:L12)*(CL!L$47-1)</f>
-        <v>0.31946908047884148</v>
+        <v>0.3215186927510435</v>
       </c>
       <c r="N12" s="41">
         <f>SUM($C12:M12)*(CL!M$47-1)</f>
-        <v>0.24993714058290953</v>
+        <v>0.25692453662084769</v>
       </c>
       <c r="O12" s="41"/>
       <c r="P12" s="42">
@@ -7100,18 +7103,18 @@
       </c>
       <c r="R12" s="44">
         <f t="shared" si="0"/>
-        <v>2.9345117280034856</v>
+        <v>2.9118554245580412</v>
       </c>
       <c r="S12" s="44">
         <f t="shared" si="1"/>
-        <v>179.93451172800349</v>
+        <v>179.91185542455804</v>
       </c>
       <c r="T12" s="43">
         <f>S12/Data!A9</f>
-        <v>8.4199584336922553E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8.4188982416732824E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>9</v>
       </c>
@@ -7146,23 +7149,23 @@
       </c>
       <c r="J13" s="41">
         <f>SUM($C13:I13)*(CL!I$47-1)</f>
-        <v>3.9712230645622633</v>
+        <v>3.8580340959082147</v>
       </c>
       <c r="K13" s="41">
         <f>SUM($C13:J13)*(CL!J$47-1)</f>
-        <v>1.7781867858384155</v>
+        <v>1.7470304316178988</v>
       </c>
       <c r="L13" s="41">
         <f>SUM($C13:K13)*(CL!K$47-1)</f>
-        <v>0.78696686864934884</v>
+        <v>0.7822570062568529</v>
       </c>
       <c r="M13" s="41">
         <f>SUM($C13:L13)*(CL!L$47-1)</f>
-        <v>0.34649079158663432</v>
+        <v>0.34850815997910478</v>
       </c>
       <c r="N13" s="41">
         <f>SUM($C13:M13)*(CL!M$47-1)</f>
-        <v>0.27107761902237615</v>
+        <v>0.27849173167840685</v>
       </c>
       <c r="O13" s="41"/>
       <c r="P13" s="42">
@@ -7175,18 +7178,18 @@
       </c>
       <c r="R13" s="44">
         <f t="shared" si="0"/>
-        <v>7.1539451296590357</v>
+        <v>7.0143214254404711</v>
       </c>
       <c r="S13" s="44">
         <f t="shared" si="1"/>
-        <v>195.15394512965904</v>
+        <v>195.01432142544047</v>
       </c>
       <c r="T13" s="43">
         <f>S13/Data!A10</f>
-        <v>0.10503441610853555</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.10495926879733071</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>10</v>
       </c>
@@ -7217,27 +7220,27 @@
       </c>
       <c r="I14" s="41">
         <f>SUM($C14:H14)*(CL!H$47-1)</f>
-        <v>8.7672422548008342</v>
+        <v>8.4171939125116531</v>
       </c>
       <c r="J14" s="41">
         <f>SUM($C14:I14)*(CL!I$47-1)</f>
-        <v>4.0296769808787332</v>
+        <v>3.9076384391576391</v>
       </c>
       <c r="K14" s="41">
         <f>SUM($C14:J14)*(CL!J$47-1)</f>
-        <v>1.8043605816400143</v>
+        <v>1.7694927258959807</v>
       </c>
       <c r="L14" s="41">
         <f>SUM($C14:K14)*(CL!K$47-1)</f>
-        <v>0.79855052807517235</v>
+        <v>0.79231480877570226</v>
       </c>
       <c r="M14" s="41">
         <f>SUM($C14:L14)*(CL!L$47-1)</f>
-        <v>0.35159091903013395</v>
+        <v>0.35298907382358419</v>
       </c>
       <c r="N14" s="41">
         <f>SUM($C14:M14)*(CL!M$47-1)</f>
-        <v>0.27506771179732048</v>
+        <v>0.28207241528743815</v>
       </c>
       <c r="O14" s="41"/>
       <c r="P14" s="42">
@@ -7250,18 +7253,18 @@
       </c>
       <c r="R14" s="44">
         <f t="shared" si="0"/>
-        <v>16.026488976222254</v>
+        <v>15.521701375452011</v>
       </c>
       <c r="S14" s="44">
         <f t="shared" si="1"/>
-        <v>198.02648897622225</v>
+        <v>197.52170137545201</v>
       </c>
       <c r="T14" s="43">
         <f>S14/Data!A11</f>
-        <v>9.5388482165810334E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.5145328215535646E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>11</v>
       </c>
@@ -7292,27 +7295,27 @@
       </c>
       <c r="I15" s="41">
         <f>SUM($C15:H15)*(CL!H$47-1)</f>
-        <v>8.4924650347128026</v>
+        <v>8.1533876805171666</v>
       </c>
       <c r="J15" s="41">
         <f>SUM($C15:I15)*(CL!I$47-1)</f>
-        <v>3.9033814586975972</v>
+        <v>3.7851677697937451</v>
       </c>
       <c r="K15" s="41">
         <f>SUM($C15:J15)*(CL!J$47-1)</f>
-        <v>1.7478094826455755</v>
+        <v>1.7140344326200712</v>
       </c>
       <c r="L15" s="41">
         <f>SUM($C15:K15)*(CL!K$47-1)</f>
-        <v>0.77352287538493525</v>
+        <v>0.76748259195509916</v>
       </c>
       <c r="M15" s="41">
         <f>SUM($C15:L15)*(CL!L$47-1)</f>
-        <v>0.34057158449692942</v>
+        <v>0.34192591922972304</v>
       </c>
       <c r="N15" s="41">
         <f>SUM($C15:M15)*(CL!M$47-1)</f>
-        <v>0.26644671799025921</v>
+        <v>0.27323188460702297</v>
       </c>
       <c r="O15" s="41"/>
       <c r="P15" s="42">
@@ -7325,18 +7328,18 @@
       </c>
       <c r="R15" s="44">
         <f t="shared" si="0"/>
-        <v>30.820071203873823</v>
+        <v>30.331104328668545</v>
       </c>
       <c r="S15" s="44">
         <f t="shared" si="1"/>
-        <v>191.82007120387382</v>
+        <v>191.33110432866854</v>
       </c>
       <c r="T15" s="43">
         <f>S15/Data!A12</f>
-        <v>9.4632496893869669E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.439127001907674E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>12</v>
       </c>
@@ -7367,27 +7370,27 @@
       </c>
       <c r="I16" s="41">
         <f>SUM($C16:H16)*(CL!H$47-1)</f>
-        <v>8.8790834099515354</v>
+        <v>8.5245696029446698</v>
       </c>
       <c r="J16" s="41">
         <f>SUM($C16:I16)*(CL!I$47-1)</f>
-        <v>4.0810823960968285</v>
+        <v>3.9574870442543393</v>
       </c>
       <c r="K16" s="41">
         <f>SUM($C16:J16)*(CL!J$47-1)</f>
-        <v>1.8273782838882333</v>
+        <v>1.7920656290670549</v>
       </c>
       <c r="L16" s="41">
         <f>SUM($C16:K16)*(CL!K$47-1)</f>
-        <v>0.80873740450797804</v>
+        <v>0.8024221379541514</v>
       </c>
       <c r="M16" s="41">
         <f>SUM($C16:L16)*(CL!L$47-1)</f>
-        <v>0.3560760619498809</v>
+        <v>0.35749205259668559</v>
       </c>
       <c r="N16" s="41">
         <f>SUM($C16:M16)*(CL!M$47-1)</f>
-        <v>0.27857667045706624</v>
+        <v>0.28567073090882072</v>
       </c>
       <c r="O16" s="41"/>
       <c r="P16" s="42">
@@ -7400,18 +7403,18 @@
       </c>
       <c r="R16" s="44">
         <f t="shared" si="0"/>
-        <v>61.552655202028348</v>
+        <v>61.041428172902556</v>
       </c>
       <c r="S16" s="44">
         <f t="shared" si="1"/>
-        <v>200.55265520202835</v>
+        <v>200.04142817290256</v>
       </c>
       <c r="T16" s="43">
         <f>S16/Data!A13</f>
-        <v>9.9480483731164859E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.9226898895288962E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>13</v>
       </c>
@@ -7442,27 +7445,27 @@
       </c>
       <c r="I17" s="41">
         <f>SUM($C17:H17)*(CL!H$47-1)</f>
-        <v>7.6480216848565528</v>
+        <v>7.3426602912997874</v>
       </c>
       <c r="J17" s="41">
         <f>SUM($C17:I17)*(CL!I$47-1)</f>
-        <v>3.5152509805294474</v>
+        <v>3.408791801423257</v>
       </c>
       <c r="K17" s="41">
         <f>SUM($C17:J17)*(CL!J$47-1)</f>
-        <v>1.5740170574306438</v>
+        <v>1.5436004099735949</v>
       </c>
       <c r="L17" s="41">
         <f>SUM($C17:K17)*(CL!K$47-1)</f>
-        <v>0.69660807556997406</v>
+        <v>0.69116840423011683</v>
       </c>
       <c r="M17" s="41">
         <f>SUM($C17:L17)*(CL!L$47-1)</f>
-        <v>0.30670704593210696</v>
+        <v>0.30792671317390569</v>
       </c>
       <c r="N17" s="41">
         <f>SUM($C17:M17)*(CL!M$47-1)</f>
-        <v>0.23995274266292871</v>
+        <v>0.24606323016075907</v>
       </c>
       <c r="O17" s="41"/>
       <c r="P17" s="42">
@@ -7475,18 +7478,18 @@
       </c>
       <c r="R17" s="44">
         <f t="shared" si="0"/>
-        <v>90.746553345988247</v>
+        <v>90.306206609268031</v>
       </c>
       <c r="S17" s="44">
         <f t="shared" si="1"/>
-        <v>172.74655334598825</v>
+        <v>172.30620660926803</v>
       </c>
       <c r="T17" s="43">
         <f>S17/Data!A14</f>
-        <v>8.5772866606746892E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8.555422373846476E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>14</v>
       </c>
@@ -7517,27 +7520,27 @@
       </c>
       <c r="I18" s="41">
         <f>SUM($C18:H18)*(CL!H$47-1)</f>
-        <v>7.3711146706280086</v>
+        <v>7.0768093011301048</v>
       </c>
       <c r="J18" s="41">
         <f>SUM($C18:I18)*(CL!I$47-1)</f>
-        <v>3.3879765436368654</v>
+        <v>3.285371863725139</v>
       </c>
       <c r="K18" s="41">
         <f>SUM($C18:J18)*(CL!J$47-1)</f>
-        <v>1.5170276317101419</v>
+        <v>1.4877122602924711</v>
       </c>
       <c r="L18" s="41">
         <f>SUM($C18:K18)*(CL!K$47-1)</f>
-        <v>0.67138643391648378</v>
+        <v>0.66614371326677546</v>
       </c>
       <c r="M18" s="41">
         <f>SUM($C18:L18)*(CL!L$47-1)</f>
-        <v>0.29560230070105187</v>
+        <v>0.29677780823355643</v>
       </c>
       <c r="N18" s="41">
         <f>SUM($C18:M18)*(CL!M$47-1)</f>
-        <v>0.23126492766126555</v>
+        <v>0.23715417665870625</v>
       </c>
       <c r="O18" s="41"/>
       <c r="P18" s="42">
@@ -7550,18 +7553,18 @@
       </c>
       <c r="R18" s="44">
         <f t="shared" si="0"/>
-        <v>133.49202972192157</v>
+        <v>133.06762633697451</v>
       </c>
       <c r="S18" s="44">
         <f t="shared" si="1"/>
-        <v>166.49202972192157</v>
+        <v>166.06762633697451</v>
       </c>
       <c r="T18" s="43">
         <f>S18/Data!A15</f>
-        <v>9.2035395092272834E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.1800788467094815E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>15</v>
       </c>
@@ -7592,27 +7595,27 @@
       </c>
       <c r="I19" s="41">
         <f>SUM($C19:H19)*(CL!H$47-1)</f>
-        <v>14.492270907259254</v>
+        <v>13.913640220475857</v>
       </c>
       <c r="J19" s="41">
         <f>SUM($C19:I19)*(CL!I$47-1)</f>
-        <v>6.6610649938026407</v>
+        <v>6.4593350134567142</v>
       </c>
       <c r="K19" s="41">
         <f>SUM($C19:J19)*(CL!J$47-1)</f>
-        <v>2.982612046471961</v>
+        <v>2.9249754035331779</v>
       </c>
       <c r="L19" s="41">
         <f>SUM($C19:K19)*(CL!K$47-1)</f>
-        <v>1.3200057953985707</v>
+        <v>1.309698137555529</v>
       </c>
       <c r="M19" s="41">
         <f>SUM($C19:L19)*(CL!L$47-1)</f>
-        <v>0.58118056956014896</v>
+        <v>0.58349172253711501</v>
       </c>
       <c r="N19" s="41">
         <f>SUM($C19:M19)*(CL!M$47-1)</f>
-        <v>0.45468753815075669</v>
+        <v>0.46626632856780287</v>
       </c>
       <c r="O19" s="41"/>
       <c r="P19" s="42">
@@ -7625,18 +7628,18 @@
       </c>
       <c r="R19" s="44">
         <f>S19-P19</f>
-        <v>322.33822582412438</v>
+        <v>321.50381079960727</v>
       </c>
       <c r="S19" s="44">
         <f>SUM(C19:O19)</f>
-        <v>327.33822582412438</v>
+        <v>326.50381079960727</v>
       </c>
       <c r="T19" s="45">
         <f>S19/Data!A16</f>
-        <v>0.17420874179038018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.17376466780181335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -7657,7 +7660,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -7677,19 +7680,19 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="46">
         <f>SUM(R4:R19)</f>
-        <v>667.33260768433081</v>
+        <v>665.46538104276738</v>
       </c>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="47"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
     </row>
-    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C25" s="40"/>
       <c r="D25" s="40"/>
       <c r="E25" s="40"/>
@@ -7709,7 +7712,7 @@
       <c r="S25" s="44"/>
       <c r="T25" s="48"/>
     </row>
-    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
       <c r="E26" s="40"/>
@@ -7729,7 +7732,7 @@
       <c r="S26" s="44"/>
       <c r="T26" s="48"/>
     </row>
-    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C27" s="40"/>
       <c r="D27" s="40"/>
       <c r="E27" s="40"/>
@@ -7749,7 +7752,7 @@
       <c r="S27" s="44"/>
       <c r="T27" s="48"/>
     </row>
-    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C28" s="40"/>
       <c r="D28" s="40"/>
       <c r="E28" s="40"/>
@@ -7769,7 +7772,7 @@
       <c r="S28" s="44"/>
       <c r="T28" s="48"/>
     </row>
-    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C29" s="40"/>
       <c r="D29" s="40"/>
       <c r="E29" s="40"/>
@@ -7789,7 +7792,7 @@
       <c r="S29" s="44"/>
       <c r="T29" s="48"/>
     </row>
-    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
       <c r="E30" s="40"/>
@@ -7809,7 +7812,7 @@
       <c r="S30" s="44"/>
       <c r="T30" s="48"/>
     </row>
-    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C31" s="40"/>
       <c r="D31" s="40"/>
       <c r="E31" s="40"/>
@@ -7829,7 +7832,7 @@
       <c r="S31" s="44"/>
       <c r="T31" s="48"/>
     </row>
-    <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C32" s="40"/>
       <c r="D32" s="40"/>
       <c r="E32" s="40"/>
@@ -7849,7 +7852,7 @@
       <c r="S32" s="44"/>
       <c r="T32" s="48"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C33" s="40"/>
       <c r="D33" s="40"/>
       <c r="E33" s="40"/>
@@ -7869,7 +7872,7 @@
       <c r="S33" s="44"/>
       <c r="T33" s="48"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C34" s="40"/>
       <c r="D34" s="40"/>
       <c r="E34" s="40"/>
@@ -7889,7 +7892,7 @@
       <c r="S34" s="44"/>
       <c r="T34" s="48"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C35" s="40"/>
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
@@ -7909,7 +7912,7 @@
       <c r="S35" s="44"/>
       <c r="T35" s="48"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C36" s="40"/>
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
@@ -7929,7 +7932,7 @@
       <c r="S36" s="44"/>
       <c r="T36" s="48"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C37" s="40"/>
       <c r="D37" s="40"/>
       <c r="E37" s="40"/>
@@ -7949,7 +7952,7 @@
       <c r="S37" s="44"/>
       <c r="T37" s="48"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C38" s="40"/>
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
@@ -7969,7 +7972,7 @@
       <c r="S38" s="44"/>
       <c r="T38" s="48"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C39" s="40"/>
       <c r="D39" s="40"/>
       <c r="E39" s="40"/>
@@ -7989,7 +7992,7 @@
       <c r="S39" s="44"/>
       <c r="T39" s="48"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C40" s="40"/>
       <c r="D40" s="40"/>
       <c r="E40" s="40"/>
@@ -8009,13 +8012,13 @@
       <c r="S40" s="44"/>
       <c r="T40" s="48"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="P41" s="6"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="48"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="47"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="44"/>
@@ -8024,57 +8027,57 @@
       <c r="T42" s="49"/>
       <c r="U42" s="49"/>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" t="str">
-        <f t="shared" ref="C60:O60" si="2">IF(C42&gt;0,C21/C42,"")</f>
+        <f t="shared" ref="C60:O60" si="3">IF(C42&gt;0,C21/C42,"")</f>
         <v/>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>

--- a/static/output/Excel/LRcountsxl2-sol1.xlsx
+++ b/static/output/Excel/LRcountsxl2-sol1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-Tutorials/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-2024/static/output/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25259D26-250B-AF49-862B-E2CAE06D5280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C2E523-7C20-B047-AAAF-728864F118CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4880" yWindow="760" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
